--- a/Assets/03Data/CollectiveGame.xlsx
+++ b/Assets/03Data/CollectiveGame.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="CharacterData" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="LevelData" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="PlayerLevelData" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -165,6 +166,15 @@
   </si>
   <si>
     <t>Exp</t>
+  </si>
+  <si>
+    <t>PlayerLevel</t>
+  </si>
+  <si>
+    <t>MaxEnergy</t>
+  </si>
+  <si>
+    <t>PlayerExp</t>
   </si>
 </sst>
 </file>
@@ -218,6 +228,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -778,6 +792,23 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E11">
+      <formula1>"Attack,Defence,Support"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I11">
+      <formula1>"Heavy,Light,Special"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J11">
+      <formula1>"Back,Front,Middle"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D11">
+      <formula1>"AR,HG,SG,SMG,SR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H11">
+      <formula1>"Explosive,Mystic,Piercing"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1152,4 +1183,250 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>145.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2500.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>175.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3500.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>205.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>220.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4500.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>235.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5500.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6500.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7000.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7500.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8000.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8500.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9000.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9500.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/03Data/CollectiveGame.xlsx
+++ b/Assets/03Data/CollectiveGame.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Position</t>
   </si>
   <si>
+    <t>CharacterImage</t>
+  </si>
+  <si>
     <t>소연</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
     <t>Middle</t>
   </si>
   <si>
+    <t>CharacterImage/Soyeon</t>
+  </si>
+  <si>
     <t>정은</t>
   </si>
   <si>
@@ -84,6 +90,9 @@
     <t>Back</t>
   </si>
   <si>
+    <t>CharacterImage/Jeongeun</t>
+  </si>
+  <si>
     <t>혜진</t>
   </si>
   <si>
@@ -105,6 +114,9 @@
     <t>Front</t>
   </si>
   <si>
+    <t>CharacterImage/Hyejin</t>
+  </si>
+  <si>
     <t>주희</t>
   </si>
   <si>
@@ -117,6 +129,9 @@
     <t>체력회복</t>
   </si>
   <si>
+    <t>CharacterImage/Juhee</t>
+  </si>
+  <si>
     <t>장미</t>
   </si>
   <si>
@@ -126,34 +141,52 @@
     <t>폭탄던지기</t>
   </si>
   <si>
+    <t>CharacterImage/Jangmi</t>
+  </si>
+  <si>
     <t>지우</t>
   </si>
   <si>
     <t>강화</t>
   </si>
   <si>
+    <t>CharacterImage/Jiwoo</t>
+  </si>
+  <si>
     <t>채원</t>
   </si>
   <si>
     <t>아군지원</t>
   </si>
   <si>
+    <t>CharacterImage/Chaewon</t>
+  </si>
+  <si>
     <t>수아</t>
   </si>
   <si>
     <t>모든적저격</t>
   </si>
   <si>
+    <t>CharacterImage/Sua</t>
+  </si>
+  <si>
     <t>유나</t>
   </si>
   <si>
     <t>엄폐물설치</t>
   </si>
   <si>
+    <t>CharacterImage/Yuna</t>
+  </si>
+  <si>
     <t>세아</t>
   </si>
   <si>
     <t>방어지원</t>
+  </si>
+  <si>
+    <t>CharacterImage/Sea</t>
   </si>
   <si>
     <t>Level</t>
@@ -438,6 +471,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="11" max="11" width="20.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -470,37 +506,43 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1001.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>3.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>3.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -508,31 +550,34 @@
         <v>1002.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>3.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>3.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -540,31 +585,34 @@
         <v>1003.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>2.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1">
         <v>3.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -572,31 +620,34 @@
         <v>1004.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>2.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1">
         <v>2.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -604,31 +655,34 @@
         <v>1005.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1">
         <v>2.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1">
         <v>4.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -636,31 +690,34 @@
         <v>1006.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
         <v>2.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1">
         <v>2.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -668,31 +725,34 @@
         <v>1007.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1">
         <v>1.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1">
         <v>3.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -700,31 +760,34 @@
         <v>1008.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1">
         <v>1.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1">
         <v>4.0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -732,31 +795,34 @@
         <v>1009.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1">
         <v>3.0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -764,31 +830,34 @@
         <v>1010.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1">
         <v>1.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1">
         <v>2.0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -825,19 +894,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
@@ -845,7 +914,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1">
-        <v>15.0</v>
+        <v>115.0</v>
       </c>
       <c r="C2" s="1">
         <v>3.0</v>
@@ -862,7 +931,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
-        <v>45.0</v>
+        <v>145.0</v>
       </c>
       <c r="C3" s="1">
         <v>6.0</v>
@@ -879,7 +948,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
-        <v>75.0</v>
+        <v>175.0</v>
       </c>
       <c r="C4" s="1">
         <v>9.0</v>
@@ -896,7 +965,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1">
-        <v>105.0</v>
+        <v>205.0</v>
       </c>
       <c r="C5" s="1">
         <v>12.0</v>
@@ -913,7 +982,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
-        <v>135.0</v>
+        <v>235.0</v>
       </c>
       <c r="C6" s="1">
         <v>15.0</v>
@@ -930,7 +999,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
-        <v>165.0</v>
+        <v>265.0</v>
       </c>
       <c r="C7" s="1">
         <v>18.0</v>
@@ -947,7 +1016,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1">
-        <v>195.0</v>
+        <v>295.0</v>
       </c>
       <c r="C8" s="1">
         <v>21.0</v>
@@ -964,7 +1033,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1">
-        <v>225.0</v>
+        <v>325.0</v>
       </c>
       <c r="C9" s="1">
         <v>24.0</v>
@@ -981,7 +1050,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1">
-        <v>255.0</v>
+        <v>355.0</v>
       </c>
       <c r="C10" s="1">
         <v>27.0</v>
@@ -998,7 +1067,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1">
-        <v>285.0</v>
+        <v>385.0</v>
       </c>
       <c r="C11" s="1">
         <v>30.0</v>
@@ -1015,7 +1084,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1">
-        <v>315.0</v>
+        <v>415.0</v>
       </c>
       <c r="C12" s="1">
         <v>33.0</v>
@@ -1032,7 +1101,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1">
-        <v>345.0</v>
+        <v>445.0</v>
       </c>
       <c r="C13" s="1">
         <v>36.0</v>
@@ -1049,7 +1118,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1">
-        <v>375.0</v>
+        <v>475.0</v>
       </c>
       <c r="C14" s="1">
         <v>39.0</v>
@@ -1066,7 +1135,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1">
-        <v>405.0</v>
+        <v>505.0</v>
       </c>
       <c r="C15" s="1">
         <v>42.0</v>
@@ -1083,7 +1152,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1">
-        <v>435.0</v>
+        <v>535.0</v>
       </c>
       <c r="C16" s="1">
         <v>45.0</v>
@@ -1100,7 +1169,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1">
-        <v>465.0</v>
+        <v>565.0</v>
       </c>
       <c r="C17" s="1">
         <v>48.0</v>
@@ -1117,7 +1186,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1">
-        <v>495.0</v>
+        <v>595.0</v>
       </c>
       <c r="C18" s="1">
         <v>51.0</v>
@@ -1134,7 +1203,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1">
-        <v>525.0</v>
+        <v>625.0</v>
       </c>
       <c r="C19" s="1">
         <v>54.0</v>
@@ -1151,7 +1220,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1">
-        <v>555.0</v>
+        <v>655.0</v>
       </c>
       <c r="C20" s="1">
         <v>57.0</v>
@@ -1168,7 +1237,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1">
-        <v>585.0</v>
+        <v>685.0</v>
       </c>
       <c r="C21" s="1">
         <v>60.0</v>
@@ -1197,13 +1266,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">

--- a/Assets/03Data/CollectiveGame.xlsx
+++ b/Assets/03Data/CollectiveGame.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Armor</t>
+  </si>
+  <si>
+    <t>Healing</t>
   </si>
   <si>
     <t>Exp</t>
@@ -908,6 +911,9 @@
       <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -923,6 +929,9 @@
         <v>10.0</v>
       </c>
       <c r="E2" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F2" s="1">
         <v>15.0</v>
       </c>
     </row>
@@ -940,6 +949,9 @@
         <v>14.0</v>
       </c>
       <c r="E3" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="F3" s="1">
         <v>30.0</v>
       </c>
     </row>
@@ -957,6 +969,9 @@
         <v>18.0</v>
       </c>
       <c r="E4" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="F4" s="1">
         <v>45.0</v>
       </c>
     </row>
@@ -974,6 +989,9 @@
         <v>22.0</v>
       </c>
       <c r="E5" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="F5" s="1">
         <v>60.0</v>
       </c>
     </row>
@@ -991,6 +1009,9 @@
         <v>26.0</v>
       </c>
       <c r="E6" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="F6" s="1">
         <v>75.0</v>
       </c>
     </row>
@@ -1008,6 +1029,9 @@
         <v>30.0</v>
       </c>
       <c r="E7" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="F7" s="1">
         <v>90.0</v>
       </c>
     </row>
@@ -1025,6 +1049,9 @@
         <v>34.0</v>
       </c>
       <c r="E8" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="F8" s="1">
         <v>105.0</v>
       </c>
     </row>
@@ -1042,6 +1069,9 @@
         <v>38.0</v>
       </c>
       <c r="E9" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="F9" s="1">
         <v>120.0</v>
       </c>
     </row>
@@ -1059,6 +1089,9 @@
         <v>42.0</v>
       </c>
       <c r="E10" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="F10" s="1">
         <v>135.0</v>
       </c>
     </row>
@@ -1076,6 +1109,9 @@
         <v>46.0</v>
       </c>
       <c r="E11" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="F11" s="1">
         <v>150.0</v>
       </c>
     </row>
@@ -1093,6 +1129,9 @@
         <v>50.0</v>
       </c>
       <c r="E12" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F12" s="1">
         <v>165.0</v>
       </c>
     </row>
@@ -1110,6 +1149,9 @@
         <v>54.0</v>
       </c>
       <c r="E13" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="F13" s="1">
         <v>180.0</v>
       </c>
     </row>
@@ -1127,6 +1169,9 @@
         <v>58.0</v>
       </c>
       <c r="E14" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="F14" s="1">
         <v>195.0</v>
       </c>
     </row>
@@ -1144,6 +1189,9 @@
         <v>62.0</v>
       </c>
       <c r="E15" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="F15" s="1">
         <v>210.0</v>
       </c>
     </row>
@@ -1161,6 +1209,9 @@
         <v>66.0</v>
       </c>
       <c r="E16" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="F16" s="1">
         <v>225.0</v>
       </c>
     </row>
@@ -1178,6 +1229,9 @@
         <v>70.0</v>
       </c>
       <c r="E17" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="F17" s="1">
         <v>240.0</v>
       </c>
     </row>
@@ -1195,6 +1249,9 @@
         <v>74.0</v>
       </c>
       <c r="E18" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="F18" s="1">
         <v>255.0</v>
       </c>
     </row>
@@ -1212,6 +1269,9 @@
         <v>78.0</v>
       </c>
       <c r="E19" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="F19" s="1">
         <v>270.0</v>
       </c>
     </row>
@@ -1229,6 +1289,9 @@
         <v>82.0</v>
       </c>
       <c r="E20" s="1">
+        <v>84.0</v>
+      </c>
+      <c r="F20" s="1">
         <v>285.0</v>
       </c>
     </row>
@@ -1246,6 +1309,9 @@
         <v>86.0</v>
       </c>
       <c r="E21" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="F21" s="1">
         <v>300.0</v>
       </c>
     </row>
@@ -1266,13 +1332,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
